--- a/01_ドキュメント/06_テーブル定義書_ユーザステータス.xlsx
+++ b/01_ドキュメント/06_テーブル定義書_ユーザステータス.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\Kiracu_Flyer\01_ドキュメント\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A38A36A-D5D5-49C8-B5BA-E804FE637C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59B450C-7999-49B1-9A7C-C85FF5E09186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AB042E4E-A221-45D1-86AF-00640B2F751C}"/>
   </bookViews>
@@ -365,7 +365,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -390,18 +402,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -735,22 +735,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
       <c r="E1" s="12" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="22"/>
+      <c r="H1" s="26"/>
       <c r="I1" s="12" t="s">
         <v>15</v>
       </c>
@@ -778,22 +778,22 @@
       <c r="AA1" s="2"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
       <c r="E2" s="11" t="s">
         <v>41</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="20"/>
+      <c r="H2" s="24"/>
       <c r="I2" s="10">
         <v>45625</v>
       </c>
@@ -820,16 +820,16 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -875,10 +875,10 @@
       <c r="I4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="18"/>
+      <c r="K4" s="22"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -920,10 +920,10 @@
         <v>30</v>
       </c>
       <c r="I5" s="4"/>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="14"/>
+      <c r="K5" s="15"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -963,8 +963,8 @@
         <v>30</v>
       </c>
       <c r="I6" s="4"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1002,8 +1002,8 @@
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1043,8 +1043,8 @@
         <v>30</v>
       </c>
       <c r="I8" s="3"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1084,8 +1084,8 @@
         <v>30</v>
       </c>
       <c r="I9" s="3"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1115,8 +1115,8 @@
       <c r="G10" s="4"/>
       <c r="H10" s="5"/>
       <c r="I10" s="4"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1146,8 +1146,8 @@
       <c r="G11" s="4"/>
       <c r="H11" s="6"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1177,8 +1177,8 @@
       <c r="G12" s="4"/>
       <c r="H12" s="6"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1208,8 +1208,8 @@
       <c r="G13" s="4"/>
       <c r="H13" s="5"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1239,8 +1239,8 @@
       <c r="G14" s="4"/>
       <c r="H14" s="6"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -1270,8 +1270,8 @@
       <c r="G15" s="4"/>
       <c r="H15" s="6"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -1299,8 +1299,8 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -1350,19 +1350,19 @@
       <c r="AA17" s="2"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -1381,17 +1381,17 @@
       <c r="AA18" s="2"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -1410,17 +1410,17 @@
       <c r="AA19" s="2"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -1439,17 +1439,17 @@
       <c r="AA20" s="2"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A21" s="23"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -1468,17 +1468,17 @@
       <c r="AA21" s="2"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A22" s="23"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -1497,17 +1497,17 @@
       <c r="AA22" s="2"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A23" s="23"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -1526,17 +1526,17 @@
       <c r="AA23" s="2"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A24" s="23"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -1555,17 +1555,17 @@
       <c r="AA24" s="2"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A25" s="23"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -1584,17 +1584,17 @@
       <c r="AA25" s="2"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A26" s="23"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -1613,17 +1613,17 @@
       <c r="AA26" s="2"/>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A27" s="23"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -1642,17 +1642,17 @@
       <c r="AA27" s="2"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A28" s="23"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -1671,17 +1671,17 @@
       <c r="AA28" s="2"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A29" s="23"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -1700,17 +1700,17 @@
       <c r="AA29" s="2"/>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A30" s="23"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -29889,16 +29889,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="A18:K30"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J16:K16"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
@@ -29908,6 +29898,16 @@
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="J5:K5"/>
+    <mergeCell ref="A18:K30"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J15:K15"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
